--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-stg-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-stg-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-stg-req-3:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -700,7 +700,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -789,8 +789,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>(USCDI) Clinically relevant time/time-period for observation</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="436">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Cancer Stage</t>
+    <t>Cancer Stage Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile representing the cancer stage for a cancer patient. 
-It constrains the mCODE [CancerStage profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-stage) to include specific constraints and extensions relevant to Onconova.</t>
+    <t xml:space="preserve">A profile representing the cancer stage for a cancer patient. 
+It constrains the mCODE [CancerStage profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-stage) to include specific constraints and extensions relevant to Onconova.
+**Conformance:**
+Observation resources representing a cancer staging in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-stage|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-stage</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -378,7 +380,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -514,7 +516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -543,7 +545,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -568,19 +570,13 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>(USCDI) registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
+    <t>Not used in this profile</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
   </si>
   <si>
     <t>required</t>
@@ -629,7 +625,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -654,7 +650,7 @@
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category|6.1.0</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -676,7 +672,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-stage-type-vs|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-stage-type-vs</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -700,7 +696,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
@@ -731,7 +727,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-primary-cancer-condition|4.0.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition)
 </t>
   </si>
   <si>
@@ -754,14 +750,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
-  </si>
-  <si>
-    <t>Healthcare event during which this observation is made</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
@@ -824,12 +814,6 @@
 </t>
   </si>
   <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
@@ -845,16 +829,10 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|6.1.0|PractitionerRole|4.0.1|http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson|6.1.0)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|PractitionerRole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson)
 </t>
   </si>
   <si>
-    <t>(USCDI) Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
-  </si>
-  <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
@@ -885,7 +863,7 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-stage-value-vs|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-stage-value-vs</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -926,7 +904,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -943,12 +921,6 @@
 </t>
   </si>
   <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
-  </si>
-  <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
   </si>
   <si>
@@ -958,7 +930,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1001,12 +973,6 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
-  </si>
-  <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
@@ -1017,7 +983,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1047,7 +1013,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-staging-method-vs|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-staging-method-vs</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1059,16 +1025,10 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen|4.0.1)
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
-    <t>Specimen used for this observation</t>
-  </si>
-  <si>
-    <t>The specimen that was used when this observation was made.</t>
-  </si>
-  <si>
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
   </si>
   <si>
@@ -1087,11 +1047,8 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
 </t>
-  </si>
-  <si>
-    <t>Not used in this profile</t>
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
@@ -1180,7 +1137,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1230,7 +1187,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1263,7 +1220,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1300,7 +1257,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1322,7 +1279,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|4.0.1|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|6.1.0|ImagingStudy|4.0.1|Media|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(Observation|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|ImagingStudy|Media|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1341,12 +1298,6 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results</t>
-  </si>
-  <si>
-    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
-  </si>
-  <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
@@ -1380,7 +1331,7 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-staging-prognostic-factor-type-vs|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-staging-prognostic-factor-type-vs</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1399,7 +1350,7 @@
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-staging-prognostic-factor-value-vs|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-staging-prognostic-factor-value-vs</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -1419,6 +1370,12 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
+  </si>
+  <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -1781,7 +1738,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="150.18359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.0078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.48046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
@@ -3401,13 +3358,13 @@
         <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3417,28 +3374,28 @@
         <v>20</v>
       </c>
       <c r="S14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="T14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3471,19 +3428,19 @@
         <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>20</v>
@@ -3491,10 +3448,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3517,19 +3474,19 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3557,26 +3514,26 @@
         <v>115</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3600,10 +3557,10 @@
         <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>20</v>
@@ -3611,13 +3568,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>20</v>
@@ -3639,19 +3596,19 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3676,13 +3633,13 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -3700,7 +3657,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3724,10 +3681,10 @@
         <v>20</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>20</v>
@@ -3735,14 +3692,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3761,19 +3718,19 @@
         <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3802,7 +3759,7 @@
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -3820,7 +3777,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>91</v>
@@ -3835,30 +3792,30 @@
         <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3881,19 +3838,19 @@
         <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3942,7 +3899,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3957,19 +3914,19 @@
         <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>20</v>
@@ -3977,10 +3934,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3988,10 +3945,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>92</v>
@@ -4003,16 +3960,16 @@
         <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4062,7 +4019,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4083,13 +4040,13 @@
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
@@ -4097,14 +4054,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4123,19 +4080,19 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4184,7 +4141,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4199,19 +4156,19 @@
         <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>20</v>
@@ -4219,18 +4176,18 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>91</v>
@@ -4245,19 +4202,19 @@
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4306,7 +4263,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4321,19 +4278,19 @@
         <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>20</v>
@@ -4341,10 +4298,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4367,16 +4324,16 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>259</v>
+        <v>176</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4426,7 +4383,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4447,13 +4404,13 @@
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
@@ -4461,10 +4418,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4487,17 +4444,17 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>266</v>
+        <v>176</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4546,7 +4503,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4561,19 +4518,19 @@
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4581,10 +4538,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4592,7 +4549,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>91</v>
@@ -4607,19 +4564,19 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4648,7 +4605,7 @@
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4666,7 +4623,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4675,7 +4632,7 @@
         <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>103</v>
@@ -4684,27 +4641,27 @@
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4727,19 +4684,19 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4764,13 +4721,13 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4788,7 +4745,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4797,7 +4754,7 @@
         <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>103</v>
@@ -4812,7 +4769,7 @@
         <v>134</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
@@ -4823,14 +4780,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4849,19 +4806,19 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>296</v>
+        <v>176</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>297</v>
+        <v>176</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4886,13 +4843,13 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -4910,7 +4867,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4928,27 +4885,27 @@
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4971,19 +4928,19 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5032,7 +4989,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5053,10 +5010,10 @@
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
@@ -5067,10 +5024,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5093,16 +5050,16 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>315</v>
+        <v>176</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>316</v>
+        <v>176</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5128,13 +5085,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5152,7 +5109,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5170,27 +5127,27 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5213,19 +5170,19 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5254,7 +5211,7 @@
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5272,7 +5229,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5293,10 +5250,10 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -5307,10 +5264,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5333,16 +5290,16 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>335</v>
+        <v>176</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>336</v>
+        <v>176</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5392,7 +5349,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5410,27 +5367,27 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5453,16 +5410,16 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>344</v>
+        <v>176</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>344</v>
+        <v>176</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5512,7 +5469,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5530,27 +5487,27 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5573,19 +5530,19 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>344</v>
+        <v>176</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>344</v>
+        <v>176</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5634,7 +5591,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5646,7 +5603,7 @@
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
@@ -5655,10 +5612,10 @@
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -5669,10 +5626,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5695,13 +5652,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5752,7 +5709,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5776,7 +5733,7 @@
         <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5787,10 +5744,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5819,7 +5776,7 @@
         <v>138</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>140</v>
@@ -5872,7 +5829,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5896,7 +5853,7 @@
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -5907,14 +5864,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5936,10 +5893,10 @@
         <v>137</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>140</v>
@@ -5994,7 +5951,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6029,10 +5986,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6055,13 +6012,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6112,7 +6069,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6121,7 +6078,7 @@
         <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>103</v>
@@ -6133,10 +6090,10 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6147,10 +6104,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6173,13 +6130,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6230,7 +6187,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6239,7 +6196,7 @@
         <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>103</v>
@@ -6251,10 +6208,10 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6265,10 +6222,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6291,19 +6248,19 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6331,10 +6288,10 @@
         <v>115</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6352,7 +6309,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6370,13 +6327,13 @@
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6387,10 +6344,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6413,19 +6370,19 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6450,13 +6407,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6474,7 +6431,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6492,13 +6449,13 @@
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6509,10 +6466,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6535,17 +6492,17 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6594,7 +6551,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6618,7 +6575,7 @@
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6629,10 +6586,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6655,13 +6612,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6712,7 +6669,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6733,10 +6690,10 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6747,10 +6704,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6773,16 +6730,16 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6832,7 +6789,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6853,10 +6810,10 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6867,10 +6824,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6893,16 +6850,16 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6952,7 +6909,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6973,10 +6930,10 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -6987,10 +6944,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7013,19 +6970,19 @@
         <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>422</v>
+        <v>176</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>423</v>
+        <v>176</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7074,7 +7031,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7095,10 +7052,10 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7109,10 +7066,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7135,13 +7092,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7192,7 +7149,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7216,7 +7173,7 @@
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7227,10 +7184,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7259,7 +7216,7 @@
         <v>138</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>140</v>
@@ -7312,7 +7269,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7336,7 +7293,7 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7347,14 +7304,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7376,10 +7333,10 @@
         <v>137</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>140</v>
@@ -7434,7 +7391,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7469,10 +7426,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7495,19 +7452,19 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7536,7 +7493,7 @@
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7554,7 +7511,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>91</v>
@@ -7572,16 +7529,16 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>20</v>
@@ -7589,10 +7546,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7615,19 +7572,19 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7656,7 +7613,7 @@
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7674,7 +7631,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7692,27 +7649,27 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7735,19 +7692,19 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7772,13 +7729,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7796,7 +7753,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7805,7 +7762,7 @@
         <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>103</v>
@@ -7820,7 +7777,7 @@
         <v>134</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7831,14 +7788,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7857,19 +7814,19 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>296</v>
+        <v>431</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>297</v>
+        <v>432</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7894,13 +7851,13 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -7918,7 +7875,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7936,27 +7893,27 @@
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7982,16 +7939,16 @@
         <v>82</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8040,7 +7997,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8061,10 +8018,10 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="479">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-stg-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-stg-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-stg-req-3:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-stg-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-stg-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-stg-req-3:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}o-stg-breslow:For Breslow stages, the exact Breslow depth must be provided. {code.coding.code = '106243009' implies value.extension(https://onconova.github.io/fhir/StructureDefinition/onconova-ext-cancer-stage-breslow-depth).valueQuantity.value.hasValue()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -882,6 +882,109 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
+    <t>Observation.value[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.value[x].extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x].extension:breslowDepth</t>
+  </si>
+  <si>
+    <t>breslowDepth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-cancer-stage-breslow-depth}
+</t>
+  </si>
+  <si>
+    <t>Cancer Stage Breslow Depth</t>
+  </si>
+  <si>
+    <t>The actual measured Breslow depth as a quantity</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.value[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
@@ -1092,29 +1195,7 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1298,10 +1379,23 @@
     <t>Observation.component</t>
   </si>
   <si>
+    <t>Component results</t>
+  </si>
+  <si>
+    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
+  </si>
+  <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:code}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the component.code value</t>
   </si>
   <si>
     <t>containment by OBX-4?</t>
@@ -1385,6 +1479,51 @@
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
+  </si>
+  <si>
+    <t>Observation.component:ulceration</t>
+  </si>
+  <si>
+    <t>ulceration</t>
+  </si>
+  <si>
+    <t>Presence of ulceration</t>
+  </si>
+  <si>
+    <t>Observation.component:ulceration.id</t>
+  </si>
+  <si>
+    <t>Observation.component:ulceration.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:ulceration.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component:ulceration.code</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="105600-1"/&gt;
+    &lt;display value="Ulceration status [Presence] in Tissue"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component:ulceration.value[x]</t>
+  </si>
+  <si>
+    <t>https://loinc.org/LL4443-9</t>
+  </si>
+  <si>
+    <t>Observation.component:ulceration.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Observation.component:ulceration.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component:ulceration.referenceRange</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +1843,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP52"/>
+  <dimension ref="A1:AP66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1713,9 +1852,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.58203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1741,7 +1880,7 @@
     <col min="26" max="26" width="69.48046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3948,7 +4087,7 @@
         <v>91</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>92</v>
@@ -4684,20 +4823,16 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N25" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="O25" t="s" s="2">
-        <v>280</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4721,13 +4856,13 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>283</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4745,7 +4880,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4754,10 +4889,10 @@
         <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>20</v>
@@ -4766,10 +4901,10 @@
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
@@ -4780,14 +4915,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4806,20 +4941,18 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>176</v>
+        <v>283</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4843,28 +4976,28 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>286</v>
@@ -4879,35 +5012,37 @@
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>295</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>20</v>
       </c>
@@ -4916,10 +5051,10 @@
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>20</v>
@@ -4928,20 +5063,16 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>20</v>
       </c>
@@ -4989,7 +5120,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5001,7 +5132,7 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
@@ -5010,10 +5141,10 @@
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>302</v>
+        <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
@@ -5024,10 +5155,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5038,7 +5169,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -5047,21 +5178,23 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>188</v>
+        <v>293</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>176</v>
+        <v>295</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
@@ -5085,13 +5218,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5109,13 +5242,13 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -5127,27 +5260,27 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>312</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5161,28 +5294,28 @@
         <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5207,11 +5340,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5229,7 +5364,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5250,10 +5385,10 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -5264,10 +5399,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5290,18 +5425,20 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>322</v>
+        <v>188</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>176</v>
+        <v>310</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>176</v>
+        <v>311</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5325,13 +5462,13 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>20</v>
+        <v>314</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5349,7 +5486,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5358,7 +5495,7 @@
         <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>103</v>
@@ -5367,38 +5504,38 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>325</v>
+        <v>134</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>327</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -5410,7 +5547,7 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>329</v>
+        <v>188</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>176</v>
@@ -5419,9 +5556,11 @@
         <v>176</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5445,13 +5584,13 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>20</v>
+        <v>314</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5469,13 +5608,13 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
@@ -5487,27 +5626,27 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5530,19 +5669,19 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
+        <v>331</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5591,7 +5730,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5603,7 +5742,7 @@
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>339</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
@@ -5612,10 +5751,10 @@
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -5626,10 +5765,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5652,15 +5791,17 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>343</v>
+        <v>188</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>344</v>
+        <v>176</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5685,13 +5826,13 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>20</v>
+        <v>341</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5709,7 +5850,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5721,47 +5862,47 @@
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>20</v>
+        <v>343</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>20</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>20</v>
@@ -5770,18 +5911,20 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>138</v>
+        <v>347</v>
       </c>
       <c r="M34" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5805,13 +5948,11 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>20</v>
+        <v>351</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5829,19 +5970,19 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
@@ -5850,10 +5991,10 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -5864,46 +6005,44 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>137</v>
+        <v>355</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>353</v>
+        <v>176</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>354</v>
+        <v>176</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5951,45 +6090,45 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>20</v>
+        <v>357</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>20</v>
+        <v>358</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>20</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6012,15 +6151,17 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>358</v>
+        <v>176</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6069,7 +6210,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6078,7 +6219,7 @@
         <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>103</v>
@@ -6087,27 +6228,27 @@
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>20</v>
+        <v>364</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>20</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6118,7 +6259,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -6130,16 +6271,20 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>364</v>
+        <v>176</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
@@ -6187,19 +6332,19 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>372</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
@@ -6208,10 +6353,10 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6222,10 +6367,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6248,20 +6393,16 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>368</v>
+        <v>278</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6285,13 +6426,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>372</v>
+        <v>20</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6309,7 +6450,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6321,19 +6462,19 @@
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>375</v>
+        <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6351,7 +6492,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6370,20 +6511,18 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>377</v>
+        <v>138</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>378</v>
+        <v>283</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6407,13 +6546,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>381</v>
+        <v>20</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6431,7 +6570,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>376</v>
+        <v>286</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6443,19 +6582,19 @@
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>375</v>
+        <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6466,43 +6605,45 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>20</v>
+        <v>378</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>384</v>
+        <v>137</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>387</v>
+        <v>146</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6551,19 +6692,19 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
@@ -6575,7 +6716,7 @@
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>388</v>
+        <v>134</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6586,10 +6727,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6612,13 +6753,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6669,7 +6810,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6678,7 +6819,7 @@
         <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>20</v>
+        <v>386</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>103</v>
@@ -6690,10 +6831,10 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6704,10 +6845,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6718,7 +6859,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6727,20 +6868,18 @@
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6789,16 +6928,16 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>20</v>
+        <v>386</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>103</v>
@@ -6810,10 +6949,10 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6824,10 +6963,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6838,7 +6977,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6847,21 +6986,23 @@
         <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>401</v>
+        <v>188</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6885,13 +7026,13 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>20</v>
+        <v>399</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -6909,13 +7050,13 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
@@ -6927,13 +7068,13 @@
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>405</v>
+        <v>327</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -6944,10 +7085,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6967,22 +7108,22 @@
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>336</v>
+        <v>188</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>176</v>
+        <v>403</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>176</v>
+        <v>404</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7007,13 +7148,13 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>20</v>
+        <v>407</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>20</v>
+        <v>408</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -7031,7 +7172,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7049,13 +7190,13 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>410</v>
+        <v>327</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7066,10 +7207,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7092,16 +7233,18 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>343</v>
+        <v>410</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>411</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
@@ -7149,7 +7292,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7161,7 +7304,7 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -7173,7 +7316,7 @@
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>347</v>
+        <v>414</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7184,21 +7327,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -7210,17 +7353,15 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>137</v>
+        <v>277</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>138</v>
+        <v>416</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7269,19 +7410,19 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>350</v>
+        <v>415</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -7290,10 +7431,10 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>347</v>
+        <v>418</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7304,14 +7445,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7324,26 +7465,24 @@
         <v>20</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>137</v>
+        <v>420</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>353</v>
+        <v>421</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>354</v>
+        <v>422</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7391,7 +7530,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>355</v>
+        <v>419</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7403,7 +7542,7 @@
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -7412,10 +7551,10 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>20</v>
+        <v>424</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7426,10 +7565,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7437,10 +7576,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -7452,20 +7591,18 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>188</v>
+        <v>427</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>20</v>
       </c>
@@ -7489,11 +7626,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y48" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z48" t="s" s="2">
-        <v>418</v>
+        <v>20</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7511,13 +7650,13 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
@@ -7529,16 +7668,16 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>419</v>
+        <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>212</v>
+        <v>424</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>213</v>
+        <v>431</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>20</v>
@@ -7546,10 +7685,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7560,7 +7699,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7572,19 +7711,19 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>188</v>
+        <v>369</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>269</v>
+        <v>436</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7609,35 +7748,37 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>424</v>
+        <v>20</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>20</v>
+        <v>437</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>20</v>
+        <v>438</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
@@ -7649,27 +7790,27 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>425</v>
+        <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>273</v>
+        <v>439</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>274</v>
+        <v>440</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>275</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7692,20 +7833,16 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>427</v>
+        <v>278</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7729,13 +7866,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>283</v>
+        <v>20</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7753,7 +7890,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>426</v>
+        <v>280</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7762,10 +7899,10 @@
         <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
@@ -7774,10 +7911,10 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7788,14 +7925,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7814,20 +7951,18 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>431</v>
+        <v>138</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>432</v>
+        <v>283</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -7851,13 +7986,13 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -7875,7 +8010,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>430</v>
+        <v>286</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7887,37 +8022,37 @@
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>295</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>20</v>
+        <v>378</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7930,25 +8065,25 @@
         <v>20</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>434</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>337</v>
+        <v>140</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>338</v>
+        <v>146</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7997,7 +8132,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8009,29 +8144,1725 @@
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y53" s="2"/>
+      <c r="Z53" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP52" t="s" s="2">
+      <c r="AK53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y54" s="2"/>
+      <c r="Z54" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y62" s="2"/>
+      <c r="Z62" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Y63" s="2"/>
+      <c r="Z63" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP66" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP52">
+  <autoFilter ref="A1:AP66">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8041,7 +9872,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-stg-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-stg-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-stg-req-3:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}o-stg-breslow:For Breslow stages, the exact Breslow depth must be provided. {code.coding.code = '106243009' implies value.extension(https://onconova.github.io/fhir/StructureDefinition/onconova-ext-cancer-stage-breslow-depth).valueQuantity.value.hasValue()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-stg-req-1:The subject element is required and must be provided. {subject.exists()}o-stg-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-stg-req-3:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}o-stg-breslow:For Breslow stages, the exact Breslow depth must be provided. {code.coding.code = '106243009' implies value.extension(https://onconova.github.io/fhir/StructureDefinition/onconova-ext-cancer-stage-breslow-depth).valueQuantity.value.hasValue()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-stg-req-1:The subject element is required and must be provided. {subject.exists()}o-stg-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-stg-req-3:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}o-stg-breslow:For Breslow stages, the exact Breslow depth must be provided. {code.coding.code = '106243009' implies value.extension(https://onconova.github.io/fhir/StructureDefinition/onconova-ext-cancer-stage-breslow-depth).valueQuantity.value.hasValue()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-stg-req-1:The subject element is required and must be provided. {subject.exists()}o-stg-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-stg-req-3:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}o-stg-breslow:For Breslow stages, the exact Breslow depth must be provided. {code.coding.code = '106243009' implies value.extension('https://onconova.github.io/fhir/StructureDefinition/onconova-ext-cancer-stage-breslow-depth').valueQuantity.value.hasValue()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
